--- a/data/trans_orig/P19E_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19E_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C5959F7-1696-4712-95AE-5DEA508F3BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D89AB69-B3D0-4399-AB97-3B81ACE4266E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90EE15FC-D89A-4AD3-A591-63BA7D098971}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23A66689-538B-4997-B1C3-13CA21F08FE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>40,84%</t>
   </si>
   <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
   </si>
   <si>
     <t>32,14%</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>59,16%</t>
   </si>
   <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
   </si>
   <si>
     <t>67,86%</t>
   </si>
   <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>37,94%</t>
   </si>
   <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
   </si>
   <si>
     <t>29,42%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
   </si>
   <si>
     <t>33,65%</t>
   </si>
   <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
   </si>
   <si>
     <t>62,06%</t>
   </si>
   <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>70,58%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
   </si>
   <si>
     <t>66,35%</t>
   </si>
   <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -195,304 +195,310 @@
     <t>36,15%</t>
   </si>
   <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>30,05%</t>
   </si>
   <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se cepilla los dientes una o ninguna vez al día en 2023 (Tasa respuesta: 99,26%)</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
     <t>27,97%</t>
   </si>
   <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
   </si>
   <si>
     <t>72,03%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se cepilla los dientes una o ninguna vez al día en 2023 (Tasa respuesta: 99,26%)</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
     <t>31,84%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>35,77%</t>
+    <t>36,11%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
   </si>
   <si>
     <t>25,01%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
   </si>
   <si>
     <t>68,16%</t>
   </si>
   <si>
-    <t>64,23%</t>
+    <t>63,89%</t>
   </si>
   <si>
     <t>72,05%</t>
@@ -501,229 +507,223 @@
     <t>81,32%</t>
   </si>
   <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>74,99%</t>
   </si>
   <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
+    <t>17,55%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>15,2%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>80,73%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B725450-8119-4ECE-992F-CFE22ED7D143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9E861F-F126-4990-895A-835F735E34F4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1605,7 +1605,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1620,13 @@
         <v>642056</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>735</v>
@@ -1635,13 +1635,13 @@
         <v>781475</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1330</v>
@@ -1650,13 +1650,13 @@
         <v>1423531</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,7 +1712,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1724,13 +1724,13 @@
         <v>298477</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -1739,13 +1739,13 @@
         <v>209088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>463</v>
@@ -1754,13 +1754,13 @@
         <v>507565</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1775,13 @@
         <v>423152</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>512</v>
@@ -1790,13 +1790,13 @@
         <v>540869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>902</v>
@@ -1805,13 +1805,13 @@
         <v>964021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,7 +1867,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1879,13 +1879,13 @@
         <v>234376</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>152</v>
@@ -1894,13 +1894,13 @@
         <v>172237</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>389</v>
@@ -1909,13 +1909,13 @@
         <v>406613</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,28 +1930,28 @@
         <v>682906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>783</v>
       </c>
       <c r="I17" s="7">
-        <v>844005</v>
+        <v>844004</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1458</v>
@@ -1960,13 +1960,13 @@
         <v>1526910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,7 +1993,7 @@
         <v>935</v>
       </c>
       <c r="I18" s="7">
-        <v>1016242</v>
+        <v>1016241</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2034,10 +2034,10 @@
         <v>1147607</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>40</v>
@@ -2049,13 +2049,13 @@
         <v>826642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>1860</v>
@@ -2064,13 +2064,13 @@
         <v>1974249</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,13 +2085,13 @@
         <v>2150361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>2491</v>
@@ -2100,13 +2100,13 @@
         <v>2629000</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>4537</v>
@@ -2115,13 +2115,13 @@
         <v>4779361</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,7 +2177,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2198,7 +2198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B85FC9A-3BD5-4074-A9D9-AAAD1995C706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAF971B-E01A-424E-8E21-95565EA13F62}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2215,7 +2215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2322,13 +2322,13 @@
         <v>43537</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -2337,13 +2337,13 @@
         <v>32715</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>124</v>
@@ -2352,13 +2352,13 @@
         <v>76253</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2373,13 @@
         <v>56629</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>172</v>
@@ -2388,13 +2388,13 @@
         <v>96115</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>230</v>
@@ -2403,13 +2403,13 @@
         <v>152743</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,13 +2477,13 @@
         <v>173517</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>212</v>
@@ -2492,13 +2492,13 @@
         <v>110029</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>435</v>
@@ -2507,13 +2507,13 @@
         <v>283546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2528,13 @@
         <v>371406</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>775</v>
@@ -2543,13 +2543,13 @@
         <v>478991</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>1157</v>
@@ -2558,13 +2558,13 @@
         <v>850397</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2632,13 @@
         <v>225186</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="H10" s="7">
         <v>290</v>
@@ -2647,13 +2647,13 @@
         <v>181049</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>540</v>
@@ -2662,13 +2662,13 @@
         <v>406235</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,10 +2683,10 @@
         <v>812646</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>170</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19E_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19E_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D89AB69-B3D0-4399-AB97-3B81ACE4266E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A781F148-BE37-4C31-9D32-D9F59BF7CD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23A66689-538B-4997-B1C3-13CA21F08FE6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FB5D1BAF-652C-45E4-823C-D99DA41F3370}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="196">
   <si>
     <t>Población que se cepilla los dientes una o ninguna vez al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -66,327 +66,270 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
   </si>
   <si>
     <t>63,6%</t>
   </si>
   <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
     <t>66,93%</t>
   </si>
   <si>
@@ -414,316 +357,274 @@
     <t>Población que se cepilla los dientes una o ninguna vez al día en 2023 (Tasa respuesta: 99,26%)</t>
   </si>
   <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1036,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9E861F-F126-4990-895A-835F735E34F4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C346D9-6537-40D8-BD7E-1C69A9B4DC66}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1253,10 +1154,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="D4" s="7">
-        <v>46756</v>
+        <v>251270</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1268,10 +1169,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="I4" s="7">
-        <v>36434</v>
+        <v>197237</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1283,10 +1184,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>84</v>
+        <v>438</v>
       </c>
       <c r="N4" s="7">
-        <v>83190</v>
+        <v>448507</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1304,10 +1205,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>64</v>
+        <v>386</v>
       </c>
       <c r="D5" s="7">
-        <v>67719</v>
+        <v>402248</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1319,10 +1220,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="I5" s="7">
-        <v>76926</v>
+        <v>462650</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1334,10 +1235,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>142</v>
+        <v>847</v>
       </c>
       <c r="N5" s="7">
-        <v>144645</v>
+        <v>864898</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1355,10 +1256,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>111</v>
+        <v>631</v>
       </c>
       <c r="D6" s="7">
-        <v>114475</v>
+        <v>653518</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1271,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>654</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>659887</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1286,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>226</v>
+        <v>1285</v>
       </c>
       <c r="N6" s="7">
-        <v>227835</v>
+        <v>1313405</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1309,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>198</v>
+        <v>340</v>
       </c>
       <c r="D7" s="7">
-        <v>204514</v>
+        <v>363484</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1423,10 +1324,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="I7" s="7">
-        <v>160802</v>
+        <v>248081</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1438,10 +1339,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>354</v>
+        <v>570</v>
       </c>
       <c r="N7" s="7">
-        <v>365316</v>
+        <v>611564</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1459,10 +1360,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>322</v>
+        <v>595</v>
       </c>
       <c r="D8" s="7">
-        <v>334529</v>
+        <v>642056</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1474,10 +1375,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>383</v>
+        <v>735</v>
       </c>
       <c r="I8" s="7">
-        <v>385725</v>
+        <v>781475</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1489,10 +1390,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>705</v>
+        <v>1330</v>
       </c>
       <c r="N8" s="7">
-        <v>720254</v>
+        <v>1423531</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1510,10 +1411,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>520</v>
+        <v>935</v>
       </c>
       <c r="D9" s="7">
-        <v>539043</v>
+        <v>1005540</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1426,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>539</v>
+        <v>965</v>
       </c>
       <c r="I9" s="7">
-        <v>546527</v>
+        <v>1029556</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1441,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1059</v>
+        <v>1900</v>
       </c>
       <c r="N9" s="7">
-        <v>1085570</v>
+        <v>2035095</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1563,10 +1464,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="D10" s="7">
-        <v>363484</v>
+        <v>298477</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1578,10 +1479,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="I10" s="7">
-        <v>248081</v>
+        <v>209088</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1590,22 +1491,22 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="7">
+        <v>463</v>
+      </c>
+      <c r="N10" s="7">
+        <v>507565</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>570</v>
-      </c>
-      <c r="N10" s="7">
-        <v>611564</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1515,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>595</v>
+        <v>390</v>
       </c>
       <c r="D11" s="7">
-        <v>642056</v>
+        <v>423152</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>512</v>
+      </c>
+      <c r="I11" s="7">
+        <v>540869</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>735</v>
-      </c>
-      <c r="I11" s="7">
-        <v>781475</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>902</v>
+      </c>
+      <c r="N11" s="7">
+        <v>964021</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>1330</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1423531</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1566,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>935</v>
+        <v>660</v>
       </c>
       <c r="D12" s="7">
-        <v>1005540</v>
+        <v>721629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1581,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>965</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1029556</v>
+        <v>749957</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1596,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1900</v>
+        <v>1365</v>
       </c>
       <c r="N12" s="7">
-        <v>2035095</v>
+        <v>1471586</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1712,55 +1613,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="D13" s="7">
-        <v>298477</v>
+        <v>234376</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>152</v>
+      </c>
+      <c r="I13" s="7">
+        <v>172237</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>193</v>
-      </c>
-      <c r="I13" s="7">
-        <v>209088</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>389</v>
+      </c>
+      <c r="N13" s="7">
+        <v>406613</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>463</v>
-      </c>
-      <c r="N13" s="7">
-        <v>507565</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,49 +1670,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>390</v>
+        <v>675</v>
       </c>
       <c r="D14" s="7">
-        <v>423152</v>
+        <v>682906</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>783</v>
+      </c>
+      <c r="I14" s="7">
+        <v>844004</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>512</v>
-      </c>
-      <c r="I14" s="7">
-        <v>540869</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1458</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1526910</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>902</v>
-      </c>
-      <c r="N14" s="7">
-        <v>964021</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,10 +1721,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>660</v>
+        <v>912</v>
       </c>
       <c r="D15" s="7">
-        <v>721629</v>
+        <v>917282</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1835,10 +1736,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>935</v>
       </c>
       <c r="I15" s="7">
-        <v>749957</v>
+        <v>1016241</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1850,10 +1751,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1365</v>
+        <v>1847</v>
       </c>
       <c r="N15" s="7">
-        <v>1471586</v>
+        <v>1933523</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1867,55 +1768,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>237</v>
+        <v>1092</v>
       </c>
       <c r="D16" s="7">
-        <v>234376</v>
+        <v>1147607</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>768</v>
+      </c>
+      <c r="I16" s="7">
+        <v>826642</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>152</v>
-      </c>
-      <c r="I16" s="7">
-        <v>172237</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1860</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1974249</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>389</v>
-      </c>
-      <c r="N16" s="7">
-        <v>406613</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,49 +1825,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>675</v>
+        <v>2046</v>
       </c>
       <c r="D17" s="7">
-        <v>682906</v>
+        <v>2150361</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2491</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2628999</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>783</v>
-      </c>
-      <c r="I17" s="7">
-        <v>844004</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4537</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4779361</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1458</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1526910</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,10 +1876,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>912</v>
+        <v>3138</v>
       </c>
       <c r="D18" s="7">
-        <v>917282</v>
+        <v>3297968</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1990,10 +1891,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>935</v>
+        <v>3259</v>
       </c>
       <c r="I18" s="7">
-        <v>1016241</v>
+        <v>3455641</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2005,10 +1906,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1847</v>
+        <v>6397</v>
       </c>
       <c r="N18" s="7">
-        <v>1933523</v>
+        <v>6753610</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2021,171 +1922,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1092</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1147607</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>768</v>
-      </c>
-      <c r="I19" s="7">
-        <v>826642</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1860</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1974249</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2046</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2150361</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2491</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2629000</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4537</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4779361</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3138</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3297968</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3259</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3455642</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6397</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6753610</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2198,8 +1943,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAF971B-E01A-424E-8E21-95565EA13F62}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD735906-0E9A-4338-8897-B9B913EA93DA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2215,7 +1960,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2316,49 +2061,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="D4" s="7">
-        <v>43537</v>
+        <v>212573</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="I4" s="7">
-        <v>32715</v>
+        <v>135188</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>124</v>
+        <v>559</v>
       </c>
       <c r="N4" s="7">
-        <v>76253</v>
+        <v>347761</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,49 +2112,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>58</v>
+        <v>440</v>
       </c>
       <c r="D5" s="7">
-        <v>56629</v>
+        <v>416462</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>172</v>
+        <v>947</v>
       </c>
       <c r="I5" s="7">
-        <v>96115</v>
+        <v>535092</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>230</v>
+        <v>1387</v>
       </c>
       <c r="N5" s="7">
-        <v>152743</v>
+        <v>951554</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,10 +2163,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>115</v>
+        <v>720</v>
       </c>
       <c r="D6" s="7">
-        <v>100166</v>
+        <v>629035</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2433,10 +2178,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>239</v>
+        <v>1226</v>
       </c>
       <c r="I6" s="7">
-        <v>128830</v>
+        <v>670280</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2448,10 +2193,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>354</v>
+        <v>1946</v>
       </c>
       <c r="N6" s="7">
-        <v>228996</v>
+        <v>1299315</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2471,49 +2216,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="D7" s="7">
-        <v>173517</v>
+        <v>222677</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="I7" s="7">
-        <v>110029</v>
+        <v>166593</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>435</v>
+        <v>540</v>
       </c>
       <c r="N7" s="7">
-        <v>283546</v>
+        <v>389270</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,49 +2267,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>382</v>
+        <v>712</v>
       </c>
       <c r="D8" s="7">
-        <v>371406</v>
+        <v>968847</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>775</v>
+        <v>1214</v>
       </c>
       <c r="I8" s="7">
-        <v>478991</v>
+        <v>785460</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>1157</v>
+        <v>1926</v>
       </c>
       <c r="N8" s="7">
-        <v>850397</v>
+        <v>1754307</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,10 +2318,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>605</v>
+        <v>962</v>
       </c>
       <c r="D9" s="7">
-        <v>544923</v>
+        <v>1191524</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2588,10 +2333,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>987</v>
+        <v>1504</v>
       </c>
       <c r="I9" s="7">
-        <v>589020</v>
+        <v>952053</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2603,10 +2348,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1592</v>
+        <v>2466</v>
       </c>
       <c r="N9" s="7">
-        <v>1133943</v>
+        <v>2143577</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2626,49 +2371,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="D10" s="7">
-        <v>225186</v>
+        <v>199481</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="I10" s="7">
-        <v>181049</v>
+        <v>119009</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>540</v>
+        <v>403</v>
       </c>
       <c r="N10" s="7">
-        <v>406235</v>
+        <v>318490</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,49 +2422,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>712</v>
+        <v>473</v>
       </c>
       <c r="D11" s="7">
-        <v>812646</v>
+        <v>504359</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>1214</v>
+        <v>840</v>
       </c>
       <c r="I11" s="7">
-        <v>871859</v>
+        <v>812031</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>1926</v>
+        <v>1313</v>
       </c>
       <c r="N11" s="7">
-        <v>1684505</v>
+        <v>1316391</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,10 +2473,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>962</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1037832</v>
+        <v>703840</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2743,10 +2488,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1504</v>
+        <v>1042</v>
       </c>
       <c r="I12" s="7">
-        <v>1052908</v>
+        <v>931040</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2758,10 +2503,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2466</v>
+        <v>1716</v>
       </c>
       <c r="N12" s="7">
-        <v>2090740</v>
+        <v>1634881</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2775,55 +2520,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="D13" s="7">
-        <v>206409</v>
+        <v>196628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="I13" s="7">
-        <v>127356</v>
+        <v>144525</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="N13" s="7">
-        <v>333765</v>
+        <v>341153</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,49 +2577,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>473</v>
+        <v>778</v>
       </c>
       <c r="D14" s="7">
-        <v>521505</v>
+        <v>724427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>840</v>
+        <v>1302</v>
       </c>
       <c r="I14" s="7">
-        <v>744492</v>
+        <v>942915</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>1313</v>
+        <v>2080</v>
       </c>
       <c r="N14" s="7">
-        <v>1265997</v>
+        <v>1667343</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,10 +2628,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>999</v>
       </c>
       <c r="D15" s="7">
-        <v>727914</v>
+        <v>921055</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2898,10 +2643,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1042</v>
+        <v>1551</v>
       </c>
       <c r="I15" s="7">
-        <v>871848</v>
+        <v>1087440</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2913,10 +2658,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1716</v>
+        <v>2550</v>
       </c>
       <c r="N15" s="7">
-        <v>1599762</v>
+        <v>2008496</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2930,55 +2675,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>221</v>
+        <v>952</v>
       </c>
       <c r="D16" s="7">
-        <v>202982</v>
+        <v>831359</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>249</v>
+        <v>1020</v>
       </c>
       <c r="I16" s="7">
-        <v>158545</v>
+        <v>565315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>470</v>
+        <v>1972</v>
       </c>
       <c r="N16" s="7">
-        <v>361526</v>
+        <v>1396675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,49 +2732,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>778</v>
+        <v>2403</v>
       </c>
       <c r="D17" s="7">
-        <v>756313</v>
+        <v>2614095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>1302</v>
+        <v>4303</v>
       </c>
       <c r="I17" s="7">
-        <v>983397</v>
+        <v>3075498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>2080</v>
+        <v>6706</v>
       </c>
       <c r="N17" s="7">
-        <v>1739711</v>
+        <v>5689593</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +2783,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>999</v>
+        <v>3355</v>
       </c>
       <c r="D18" s="7">
-        <v>959295</v>
+        <v>3445454</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3053,10 +2798,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1551</v>
+        <v>5323</v>
       </c>
       <c r="I18" s="7">
-        <v>1141942</v>
+        <v>3640813</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3068,10 +2813,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2550</v>
+        <v>8678</v>
       </c>
       <c r="N18" s="7">
-        <v>2101237</v>
+        <v>7086268</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3084,171 +2829,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>952</v>
-      </c>
-      <c r="D19" s="7">
-        <v>851631</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1020</v>
-      </c>
-      <c r="I19" s="7">
-        <v>609694</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1972</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1461325</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2403</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2518499</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4303</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3174854</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6706</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5693353</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3355</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3370130</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5323</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3784548</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8678</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7154678</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
